--- a/data/trans_dic/ProbViv_temp-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/ProbViv_temp-Provincia-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1760758927903339</v>
+        <v>0.1722342154604036</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1781344477027209</v>
+        <v>0.1792692948552281</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1895780922568664</v>
+        <v>0.1872343778500025</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2698525900952863</v>
+        <v>0.2683348214540968</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2634253002284315</v>
+        <v>0.2670262096938757</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2544534010624853</v>
+        <v>0.2513749999430413</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.10055595984127</v>
+        <v>0.09802841376632684</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.130346726399021</v>
+        <v>0.1322958903638808</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.123988492790768</v>
+        <v>0.1232012465882591</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1765887227766029</v>
+        <v>0.1731105057999697</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1831135767159602</v>
+        <v>0.1857779439693225</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1685219386457391</v>
+        <v>0.1681768013489031</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2650743051679109</v>
+        <v>0.2626400422946391</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2770843374952218</v>
+        <v>0.2807504001167612</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2861301067735213</v>
+        <v>0.2859318169893935</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.357508649031553</v>
+        <v>0.364314562973125</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3624540479217619</v>
+        <v>0.3602376007322017</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3505586165645366</v>
+        <v>0.3488614430818031</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.2951194641874491</v>
+        <v>0.2951194641874492</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.2943146428833682</v>
+        <v>0.2943146428833683</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.2946923472249877</v>
+        <v>0.2946923472249875</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.240345988004418</v>
+        <v>0.2412796582717327</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2542965610890205</v>
+        <v>0.2564258321352111</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2614025760688207</v>
+        <v>0.263401690463704</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3613703440370476</v>
+        <v>0.3627780097146427</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3401093384376342</v>
+        <v>0.3401298351095209</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.335421171139185</v>
+        <v>0.3311923212651403</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2461752428839739</v>
+        <v>0.2438434123528683</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1685415521160976</v>
+        <v>0.1685440531601478</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2183937881076927</v>
+        <v>0.2193490889279864</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3629658873962218</v>
+        <v>0.3602615260865997</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2497978618133955</v>
+        <v>0.2449571101986791</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2914948658730909</v>
+        <v>0.2885255194030567</v>
       </c>
     </row>
     <row r="19">
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.3434500300976134</v>
+        <v>0.3434500300976133</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.2860833792764546</v>
+        <v>0.2860833792764544</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.3151400571288206</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2898992491271961</v>
+        <v>0.2988635888565823</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.247964813517551</v>
+        <v>0.2439285761704615</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.281797977005211</v>
+        <v>0.2798921645789735</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.3949986772151372</v>
+        <v>0.4004916739129882</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3313620024390228</v>
+        <v>0.3286276963136057</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3489899054276078</v>
+        <v>0.3494674077672045</v>
       </c>
     </row>
     <row r="22">
@@ -900,7 +900,7 @@
         <v>0.3862130809442688</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.3669152725388327</v>
+        <v>0.3669152725388328</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.3064920631879626</v>
+        <v>0.3003004778703705</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3546139316695807</v>
+        <v>0.353349311512916</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3421322128474487</v>
+        <v>0.3420669854694279</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3878267284720224</v>
+        <v>0.3838089941999708</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4175264925384203</v>
+        <v>0.4196142425448172</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3954956517745786</v>
+        <v>0.3937438575196887</v>
       </c>
     </row>
     <row r="25">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.8361682669965351</v>
+        <v>0.8332677969020268</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.8517180384556648</v>
+        <v>0.8559041327447361</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.8543744201937059</v>
+        <v>0.8529068961211574</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.8881907401446901</v>
+        <v>0.886923174315972</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.8951284208357114</v>
+        <v>0.8974561044665469</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.887122830457597</v>
+        <v>0.8852602737627714</v>
       </c>
     </row>
     <row r="28">
@@ -1007,7 +1007,7 @@
         <v>0.4080403241113238</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>0.4122333133974437</v>
+        <v>0.4122333133974438</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>0.4101957052322419</v>
@@ -1021,13 +1021,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.3901073527470103</v>
+        <v>0.3910085410931284</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.3977018088163591</v>
+        <v>0.3980228111525564</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.3991001247226397</v>
+        <v>0.3990838728883068</v>
       </c>
     </row>
     <row r="30">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.4263322687827732</v>
+        <v>0.4256956801310873</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.4259785805983489</v>
+        <v>0.427565878328287</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.4221968409314865</v>
+        <v>0.4234304688467354</v>
       </c>
     </row>
     <row r="31">
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>56141</v>
+        <v>54916</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>56301</v>
+        <v>56660</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>120364</v>
+        <v>118876</v>
       </c>
     </row>
     <row r="7">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>86041</v>
+        <v>85557</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>83258</v>
+        <v>84397</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>161554</v>
+        <v>159599</v>
       </c>
     </row>
     <row r="8">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>53360</v>
+        <v>52018</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>71234</v>
+        <v>72299</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>133553</v>
+        <v>132705</v>
       </c>
     </row>
     <row r="11">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>93706</v>
+        <v>91861</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>100070</v>
+        <v>101527</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>181522</v>
+        <v>181150</v>
       </c>
     </row>
     <row r="12">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>83762</v>
+        <v>82992</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>98748</v>
+        <v>100054</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>192387</v>
+        <v>192253</v>
       </c>
     </row>
     <row r="15">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>112970</v>
+        <v>115121</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>129172</v>
+        <v>128382</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>235707</v>
+        <v>234566</v>
       </c>
     </row>
     <row r="16">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>89684</v>
+        <v>90032</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>107303</v>
+        <v>108202</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>207843</v>
+        <v>209433</v>
       </c>
     </row>
     <row r="19">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>134844</v>
+        <v>135369</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>143513</v>
+        <v>143522</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>266696</v>
+        <v>263333</v>
       </c>
     </row>
     <row r="20">
@@ -1478,13 +1478,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>50630</v>
+        <v>50150</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>38582</v>
+        <v>38583</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>94910</v>
+        <v>95325</v>
       </c>
     </row>
     <row r="23">
@@ -1495,13 +1495,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>74649</v>
+        <v>74093</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>57183</v>
+        <v>56075</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>126678</v>
+        <v>125388</v>
       </c>
     </row>
     <row r="24">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>78478</v>
+        <v>80904</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>65401</v>
+        <v>64336</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>150609</v>
+        <v>149590</v>
       </c>
     </row>
     <row r="27">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>106929</v>
+        <v>108416</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>87397</v>
+        <v>86676</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>186520</v>
+        <v>186775</v>
       </c>
     </row>
     <row r="28">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>220578</v>
+        <v>216122</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>273782</v>
+        <v>272806</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>510374</v>
+        <v>510276</v>
       </c>
     </row>
     <row r="31">
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>279114</v>
+        <v>276222</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>322354</v>
+        <v>323966</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>589978</v>
+        <v>587365</v>
       </c>
     </row>
     <row r="32">
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>667322</v>
+        <v>665008</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>708060</v>
+        <v>711540</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>1392120</v>
+        <v>1389729</v>
       </c>
     </row>
     <row r="35">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>708840</v>
+        <v>707829</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>744148</v>
+        <v>746083</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>1445481</v>
+        <v>1442446</v>
       </c>
     </row>
     <row r="36">
@@ -1766,13 +1766,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>1378156</v>
+        <v>1381340</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>1486193</v>
+        <v>1487393</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>2901345</v>
+        <v>2901226</v>
       </c>
     </row>
     <row r="39">
@@ -1783,13 +1783,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1506130</v>
+        <v>1503882</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1591862</v>
+        <v>1597794</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>3069251</v>
+        <v>3078219</v>
       </c>
     </row>
     <row r="40">
